--- a/Documentacion/Porody doc.xlsx
+++ b/Documentacion/Porody doc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c6876aa6c5df59a/Desktop/Projekty/Porody/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seido\DataGripProjects\Porodnictví\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{0B8C1313-2136-468B-8C66-6BB565B337AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4B2F96E-3FB7-494A-9C79-A03EC49A82FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF10D5F-1984-493D-94C4-C4053541CB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{6A12313B-1AAA-42C1-AAE8-3D81512C9F35}"/>
   </bookViews>
@@ -396,12 +396,12 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -738,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9066B8F3-55AC-4F9D-B970-795E63557B0C}">
   <dimension ref="A2:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
@@ -752,13 +752,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="33.6" x14ac:dyDescent="0.65">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="4" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
@@ -768,7 +768,7 @@
     </row>
     <row r="5" spans="2:6" ht="21.6" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -780,55 +780,55 @@
     </row>
     <row r="9" spans="2:6" ht="21.6" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -841,13 +841,13 @@
     </row>
     <row r="24" spans="2:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="2:4" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1" t="s">
@@ -856,7 +856,7 @@
     </row>
     <row r="28" spans="2:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="29" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -868,12 +868,12 @@
     </row>
     <row r="32" spans="2:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -886,116 +886,116 @@
     </row>
     <row r="37" spans="2:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="38" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="2:2" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="61" spans="2:2" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="3"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1008,77 +1008,77 @@
     </row>
     <row r="66" spans="2:4" ht="21.6" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="69" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="74" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="77" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="4"/>
+      <c r="B78" s="3"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="83" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="85" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="88" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>44</v>
       </c>
     </row>
